--- a/Course.xlsx
+++ b/Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\공부\깃허브\DB-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D7449-6C5A-4E52-84BE-AE3EE49A5A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DAD78C-FA24-449B-B386-0981ACA45870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B8BD03B2-30E6-40A8-8BD8-9B0F2D8FB204}"/>
   </bookViews>
@@ -14903,24 +14903,24 @@
   <dimension ref="A1:K2617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="7.25" customWidth="1"/>
     <col min="9" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>4724</v>
       </c>
@@ -89327,7 +89327,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="2562" spans="1:11" ht="22.5">
+    <row r="2562" spans="1:11">
       <c r="A2562" s="4" t="s">
         <v>4296</v>
       </c>
